--- a/presencas.xlsx
+++ b/presencas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F83EDFA-5B4A-4180-9B76-BD9E415AD0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34679FBC-04E0-4443-9824-DFF069C91BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
   </bookViews>
   <sheets>
     <sheet name="Presenças " sheetId="2" r:id="rId1"/>
@@ -166,8 +166,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +215,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +251,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34EAA067-62F6-4B4C-B513-756D53A25755}" name="Tabela13" displayName="Tabela13" ref="A1:H29" totalsRowShown="0">
-  <autoFilter ref="A1:H29" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}"/>
+  <autoFilter ref="A1:H29" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2B"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5107CD91-FBBF-4B36-B6C2-880DD5B823D4}" name="N.º mecanográfico" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{8B829CA4-2422-42E8-B6DA-D4A61BD1091C}" name="Nome"/>
@@ -259,7 +274,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}" name="Tabela1" displayName="Tabela1" ref="A1:E29" totalsRowShown="0">
-  <autoFilter ref="A1:E29" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}"/>
+  <autoFilter ref="A1:E29" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2B"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DBC31C63-AAC5-486D-81FB-6B360D950D22}" name="N.º mecanográfico" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{D308D6D6-4DA7-457C-9BEE-4A454DF09047}" name="Nome"/>
@@ -568,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD02E65E-F242-4BA5-8F7B-DDE81EEE038F}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1181754</v>
       </c>
@@ -630,8 +651,14 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1190924</v>
       </c>
@@ -642,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1200714</v>
       </c>
@@ -663,6 +690,12 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -674,6 +707,12 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -685,8 +724,14 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1200968</v>
       </c>
@@ -697,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1200969</v>
       </c>
@@ -708,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1201005</v>
       </c>
@@ -719,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1201050</v>
       </c>
@@ -730,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1201128</v>
       </c>
@@ -741,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1201132</v>
       </c>
@@ -752,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1201150</v>
       </c>
@@ -773,8 +818,14 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1201171</v>
       </c>
@@ -784,8 +835,14 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1201223</v>
       </c>
@@ -795,8 +852,14 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1201233</v>
       </c>
@@ -806,8 +869,14 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1201360</v>
       </c>
@@ -817,8 +886,14 @@
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1201362</v>
       </c>
@@ -829,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1201370</v>
       </c>
@@ -839,8 +914,14 @@
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1201373</v>
       </c>
@@ -851,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1201441</v>
       </c>
@@ -862,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1201482</v>
       </c>
@@ -873,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1201576</v>
       </c>
@@ -883,8 +964,14 @@
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1201672</v>
       </c>
@@ -894,8 +981,14 @@
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1201674</v>
       </c>
@@ -905,8 +998,14 @@
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1201675</v>
       </c>
@@ -916,6 +1015,15 @@
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247E9641-19D1-4D0A-B592-557747540A4A}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +1067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1181754</v>
       </c>
@@ -987,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1190924</v>
       </c>
@@ -998,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1200714</v>
       </c>
@@ -1057,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1200968</v>
       </c>
@@ -1068,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1200969</v>
       </c>
@@ -1079,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1201005</v>
       </c>
@@ -1090,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1201050</v>
       </c>
@@ -1101,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1201128</v>
       </c>
@@ -1112,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1201132</v>
       </c>
@@ -1123,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1201150</v>
       </c>
@@ -1216,7 +1324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1201362</v>
       </c>
@@ -1241,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1201373</v>
       </c>
@@ -1252,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1201441</v>
       </c>
@@ -1263,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1201482</v>
       </c>

--- a/presencas.xlsx
+++ b/presencas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34679FBC-04E0-4443-9824-DFF069C91BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8CFFF3-AF86-45E9-BEF6-3783E3D768F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Material!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Presenças '!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Presenças '!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>N.º mecanográfico</t>
   </si>
@@ -160,13 +160,43 @@
   </si>
   <si>
     <t>Micro USB</t>
+  </si>
+  <si>
+    <t>06/04/2022</t>
+  </si>
+  <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>06/04/2024</t>
+  </si>
+  <si>
+    <t>06/04/2025</t>
+  </si>
+  <si>
+    <t>Nº do grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - Trabalho nº2</t>
+  </si>
+  <si>
+    <t>2 - Trabalho nº2</t>
+  </si>
+  <si>
+    <t>1 - Trabalho nº4</t>
+  </si>
+  <si>
+    <t>VASCO BORGES ANDRADE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +208,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,12 +251,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -250,23 +291,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34EAA067-62F6-4B4C-B513-756D53A25755}" name="Tabela13" displayName="Tabela13" ref="A1:H29" totalsRowShown="0">
-  <autoFilter ref="A1:H29" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34EAA067-62F6-4B4C-B513-756D53A25755}" name="Tabela13" displayName="Tabela13" ref="A1:M30" totalsRowShown="0">
+  <autoFilter ref="A1:M30" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}">
+    <filterColumn colId="3">
       <filters>
         <filter val="2B"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5107CD91-FBBF-4B36-B6C2-880DD5B823D4}" name="N.º mecanográfico" dataDxfId="4"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{5107CD91-FBBF-4B36-B6C2-880DD5B823D4}" name="N.º mecanográfico" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{9DDED68D-0584-405A-9C9E-DFC49D9F05ED}" name="Nº do grupo" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8B829CA4-2422-42E8-B6DA-D4A61BD1091C}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{F3C270C2-261E-49CF-9259-7F0E88778608}" name="Turma" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5896C211-5ACB-4302-B5F0-F57F818F1289}" name="09/03/2021" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F3C270C2-261E-49CF-9259-7F0E88778608}" name="Turma" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5896C211-5ACB-4302-B5F0-F57F818F1289}" name="09/03/2021" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{F76A1D56-FD20-4590-A984-98F5A03DC34B}" name="16/03/2021"/>
     <tableColumn id="6" xr3:uid="{FC935AD7-A056-483F-80E0-2CDD9F4B79C7}" name="23/03/2021"/>
     <tableColumn id="7" xr3:uid="{759FC47C-0BC0-4A23-BA4E-6575E9FEB035}" name="30/03/2021"/>
     <tableColumn id="8" xr3:uid="{5B8A4B5C-814D-4662-ADE2-58F8359D6C2D}" name="06/04/2021"/>
+    <tableColumn id="9" xr3:uid="{60047CAC-3873-4347-A52C-F0E7778F9134}" name="06/04/2022"/>
+    <tableColumn id="10" xr3:uid="{DB38A443-39C0-4008-8955-E91DD1751F54}" name="06/04/2023"/>
+    <tableColumn id="11" xr3:uid="{6EE01AC9-B493-4642-8D1A-251F4A2AEF58}" name="06/04/2024"/>
+    <tableColumn id="12" xr3:uid="{6D9426C4-E239-4AD3-B85C-35334384638E}" name="06/04/2025"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -282,9 +328,9 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DBC31C63-AAC5-486D-81FB-6B360D950D22}" name="N.º mecanográfico" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DBC31C63-AAC5-486D-81FB-6B360D950D22}" name="N.º mecanográfico" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{D308D6D6-4DA7-457C-9BEE-4A454DF09047}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{ACB9AFAF-CC75-44F9-912B-49514EBE3DD6}" name="Turma" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{ACB9AFAF-CC75-44F9-912B-49514EBE3DD6}" name="Turma" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{CEC481B8-7779-44EC-9770-184131A5D1C7}" name="XMC4200"/>
     <tableColumn id="5" xr3:uid="{DF088A2A-5B87-4BAD-8780-D374ECEF16D5}" name="Micro USB"/>
   </tableColumns>
@@ -589,443 +635,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD02E65E-F242-4BA5-8F7B-DDE81EEE038F}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1181754</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1190762</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1190924</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1200714</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1200890</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1200892</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1200909</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1200968</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1200969</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1201005</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1201050</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1201128</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1201132</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1201150</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1201164</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1201171</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1201223</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1201233</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1201360</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1201362</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1201370</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1201373</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1201441</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1201482</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1201576</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1201672</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1201674</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1201675</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>1201361</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/presencas.xlsx
+++ b/presencas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8CFFF3-AF86-45E9-BEF6-3783E3D768F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5FA43B-2E96-41E0-9A24-CDA7EFB0DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
   </bookViews>
@@ -294,17 +294,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{34EAA067-62F6-4B4C-B513-756D53A25755}" name="Tabela13" displayName="Tabela13" ref="A1:M30" totalsRowShown="0">
   <autoFilter ref="A1:M30" xr:uid="{415105AD-E60A-4B9F-BC5A-CBCCA20040E2}">
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
         <filter val="2B"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{5107CD91-FBBF-4B36-B6C2-880DD5B823D4}" name="N.º mecanográfico" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{9DDED68D-0584-405A-9C9E-DFC49D9F05ED}" name="Nº do grupo" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{9DDED68D-0584-405A-9C9E-DFC49D9F05ED}" name="Nº do grupo" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{8B829CA4-2422-42E8-B6DA-D4A61BD1091C}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{F3C270C2-261E-49CF-9259-7F0E88778608}" name="Turma" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5896C211-5ACB-4302-B5F0-F57F818F1289}" name="09/03/2021" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F3C270C2-261E-49CF-9259-7F0E88778608}" name="Turma" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5896C211-5ACB-4302-B5F0-F57F818F1289}" name="09/03/2021" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{F76A1D56-FD20-4590-A984-98F5A03DC34B}" name="16/03/2021"/>
     <tableColumn id="6" xr3:uid="{FC935AD7-A056-483F-80E0-2CDD9F4B79C7}" name="23/03/2021"/>
     <tableColumn id="7" xr3:uid="{759FC47C-0BC0-4A23-BA4E-6575E9FEB035}" name="30/03/2021"/>
@@ -328,9 +328,9 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DBC31C63-AAC5-486D-81FB-6B360D950D22}" name="N.º mecanográfico" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DBC31C63-AAC5-486D-81FB-6B360D950D22}" name="N.º mecanográfico" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{D308D6D6-4DA7-457C-9BEE-4A454DF09047}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{ACB9AFAF-CC75-44F9-912B-49514EBE3DD6}" name="Turma" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{ACB9AFAF-CC75-44F9-912B-49514EBE3DD6}" name="Turma" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{CEC481B8-7779-44EC-9770-184131A5D1C7}" name="XMC4200"/>
     <tableColumn id="5" xr3:uid="{DF088A2A-5B87-4BAD-8780-D374ECEF16D5}" name="Micro USB"/>
   </tableColumns>
@@ -638,7 +638,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,7 +1160,7 @@
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="5"/>

--- a/presencas.xlsx
+++ b/presencas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5FA43B-2E96-41E0-9A24-CDA7EFB0DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD53B8E-DD8F-43CA-8702-B69AE63B8B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/presencas.xlsx
+++ b/presencas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD53B8E-DD8F-43CA-8702-B69AE63B8B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF472609-F73A-436B-9D3D-7A670F096269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
+    <workbookView minimized="1" xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
   </bookViews>
   <sheets>
     <sheet name="Presenças " sheetId="2" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/presencas.xlsx
+++ b/presencas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGoncalves\Documents\GitHub\uControllers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF472609-F73A-436B-9D3D-7A670F096269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCEFB88-2D77-43CA-ACEC-4AC570C006EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C134D35-A1A9-423E-A6D5-46E3626C9871}"/>
   </bookViews>
   <sheets>
     <sheet name="Presenças " sheetId="2" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,6 +723,15 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -769,6 +778,15 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -789,6 +807,15 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -809,6 +836,15 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -920,8 +956,17 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1201171</v>
       </c>
@@ -940,8 +985,17 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1201223</v>
       </c>
@@ -960,8 +1014,17 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1201233</v>
       </c>
@@ -980,8 +1043,17 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1201360</v>
       </c>
@@ -1000,8 +1072,17 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1201362</v>
       </c>
@@ -1014,7 +1095,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1201370</v>
       </c>
@@ -1033,8 +1114,17 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1201373</v>
       </c>
@@ -1047,7 +1137,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1201441</v>
       </c>
@@ -1060,7 +1150,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1201482</v>
       </c>
@@ -1073,7 +1163,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1201576</v>
       </c>
@@ -1092,8 +1182,17 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1201672</v>
       </c>
@@ -1112,8 +1211,17 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1201674</v>
       </c>
@@ -1132,8 +1240,17 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1201675</v>
       </c>
@@ -1152,8 +1269,17 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1201361</v>
       </c>
@@ -1164,6 +1290,12 @@
         <v>48</v>
       </c>
       <c r="E30" s="5"/>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
